--- a/target/classes/ResultStorage/ResponsiveED.xlsx
+++ b/target/classes/ResultStorage/ResponsiveED.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>TestCase Summary</t>
   </si>
@@ -39,25 +39,22 @@
     <t>Validate  if user fill the Product, Name and Status and click on GO button then  verify the filter condition</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FAILED</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
   <si>
     <t>Validate  if user update the insistute as Inactive then value should not shown in insistute dropdown of flowing screens UserManagement,Teacher,Advisor,StudentApplication and UserManagement</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Validate if user can create school in school year tab in Insistitute detail page</t>
   </si>
 </sst>
 </file>
@@ -204,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -253,12 +250,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s" s="3">
         <v>10</v>
       </c>
     </row>
@@ -276,10 +273,30 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="3">
-        <v>14</v>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/ResultStorage/ResponsiveED.xlsx
+++ b/target/classes/ResultStorage/ResponsiveED.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TestCase Summary</t>
   </si>
@@ -36,16 +36,37 @@
     <t>Comparision Status</t>
   </si>
   <si>
+    <t>Validate  if user fill the Product, Name and Status and click on GO button then  verify the filter condition</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Validate  if user update the insistute as Inactive then value should not shown in insistute dropdown of flowing screens UserManagement,Teacher,Advisor,StudentApplication and UserManagement</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Validate if user can create school in school year tab in Insistitute detail page</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -192,13 +213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="68.7421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="176.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.4609375" customWidth="true" bestFit="true"/>
@@ -250,6 +271,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/target/classes/ResultStorage/ResponsiveED.xlsx
+++ b/target/classes/ResultStorage/ResponsiveED.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TestCase Summary</t>
   </si>
@@ -36,16 +36,37 @@
     <t>Comparision Status</t>
   </si>
   <si>
+    <t>Validate  if user fill the Product, Name and Status and click on GO button then  verify the filter condition</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Validate  if user update the insistute as Inactive then value should not shown in insistute dropdown of flowing screens UserManagement,Teacher,Advisor,StudentApplication and UserManagement</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>Validate if user can create school in school year tab in Insistitute detail page</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -192,13 +213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="68.7421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="176.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.4609375" customWidth="true" bestFit="true"/>
@@ -250,6 +271,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
